--- a/data/rabota 8.xlsx
+++ b/data/rabota 8.xlsx
@@ -19,19 +19,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="3">
   <si>
     <t>text</t>
+  </si>
+  <si>
+    <t>Денежки</t>
+  </si>
+  <si>
+    <t>fh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="170" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="171" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="_-[$$-5C0A]* #,##0.00_-;\-[$$-5C0A]* #,##0.00_-;_-[$$-5C0A]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,14 +74,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Денежный" xfId="1" builtinId="4"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1429,18 +1453,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D33"/>
+  <dimension ref="B2:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D33"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1451,8 +1481,11 @@
         <f>IF(AND(C3&gt;=-1,C3&lt;=1),1-C3*C3,ABS(C3)-1)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -1463,8 +1496,11 @@
         <f t="shared" ref="D4:D33" si="0">IF(AND(C4&gt;=-1,C4&lt;=1),1-C4*C4,ABS(C4)-1)</f>
         <v>1.7999999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="6">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -1475,8 +1511,11 @@
         <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="4">
+        <v>2144214</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -1487,8 +1526,15 @@
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F6" s="5">
+        <v>234</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -1500,7 +1546,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -1512,7 +1558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -1524,7 +1570,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -1536,7 +1582,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -1548,7 +1594,7 @@
         <v>0.39999999999999991</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -1560,7 +1606,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>0</v>
       </c>
@@ -1572,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>0</v>
       </c>
@@ -1584,7 +1630,7 @@
         <v>0.35999999999999988</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>0</v>
       </c>
@@ -1596,7 +1642,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>0</v>
       </c>
@@ -1814,6 +1860,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>